--- a/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/picos_xenofobia_historico_bi.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/picos_xenofobia_historico_bi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\picos xenofobia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/picos xenofobia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42254C2-087F-4851-8B1C-004123D060A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51A3DE-BBD9-8D4C-975C-D330B0B53BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12504" xr2:uid="{3C7ECE9C-8B54-4B88-BF3F-9FA926AA9D40}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="35520" windowHeight="19800" xr2:uid="{3C7ECE9C-8B54-4B88-BF3F-9FA926AA9D40}"/>
   </bookViews>
   <sheets>
     <sheet name="picos_xenofobia_historico_limpi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
   <si>
     <t>Pais</t>
   </si>
@@ -795,7 +795,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}" name="xenofobia_tipos" displayName="xenofobia_tipos" ref="A1:K84" totalsRowShown="0">
-  <autoFilter ref="A1:K84" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}" name="xenofobia_tipos" displayName="xenofobia_tipos" ref="A1:K102" totalsRowShown="0">
+  <autoFilter ref="A1:K102" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E502758A-6EA7-4C9A-A857-EC7783320980}" name="Pais"/>
     <tableColumn id="2" xr3:uid="{F89E1C24-17C6-4971-8B05-40F9A5025672}" name="Llamados a la accion"/>
@@ -1147,26 +1147,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EA453C-BF10-42FD-88AA-2E4B44D97766}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:K84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
-    <col min="7" max="7" width="51.375" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="24.375" customWidth="1"/>
-    <col min="10" max="10" width="23.75" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="6" max="6" width="32.796875" customWidth="1"/>
+    <col min="7" max="7" width="51.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" customWidth="1"/>
+    <col min="10" max="10" width="23.796875" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -4104,6 +4104,636 @@
       </c>
       <c r="K84" s="2">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <v>67</v>
+      </c>
+      <c r="D85">
+        <v>206</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45583</v>
+      </c>
+      <c r="F85">
+        <v>2005.3</v>
+      </c>
+      <c r="G85">
+        <v>4903635</v>
+      </c>
+      <c r="H85">
+        <v>272</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>37</v>
+      </c>
+      <c r="D86">
+        <v>110</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45584</v>
+      </c>
+      <c r="F86">
+        <v>944.5</v>
+      </c>
+      <c r="G86">
+        <v>10324513</v>
+      </c>
+      <c r="H86">
+        <v>154</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>16</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45585</v>
+      </c>
+      <c r="F87">
+        <v>122</v>
+      </c>
+      <c r="G87">
+        <v>15173</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>104</v>
+      </c>
+      <c r="D88">
+        <v>75</v>
+      </c>
+      <c r="E88" s="1">
+        <v>45624</v>
+      </c>
+      <c r="F88">
+        <v>1106.5</v>
+      </c>
+      <c r="G88">
+        <v>1069705</v>
+      </c>
+      <c r="H88">
+        <v>242</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <v>671</v>
+      </c>
+      <c r="C89">
+        <v>822</v>
+      </c>
+      <c r="D89">
+        <v>345</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45625</v>
+      </c>
+      <c r="F89">
+        <v>4423</v>
+      </c>
+      <c r="G89">
+        <v>3854958</v>
+      </c>
+      <c r="H89">
+        <v>1700</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>175</v>
+      </c>
+      <c r="C90">
+        <v>163</v>
+      </c>
+      <c r="D90">
+        <v>81</v>
+      </c>
+      <c r="E90" s="1">
+        <v>45626</v>
+      </c>
+      <c r="F90">
+        <v>1161.5</v>
+      </c>
+      <c r="G90">
+        <v>539712</v>
+      </c>
+      <c r="H90">
+        <v>363</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>88</v>
+      </c>
+      <c r="D91">
+        <v>100</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45592</v>
+      </c>
+      <c r="F91">
+        <v>188</v>
+      </c>
+      <c r="G91">
+        <v>81493</v>
+      </c>
+      <c r="H91">
+        <v>103</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>138</v>
+      </c>
+      <c r="D92">
+        <v>142</v>
+      </c>
+      <c r="E92" s="1">
+        <v>45593</v>
+      </c>
+      <c r="F92">
+        <v>344.7</v>
+      </c>
+      <c r="G92">
+        <v>236195</v>
+      </c>
+      <c r="H92">
+        <v>144</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>13</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45594</v>
+      </c>
+      <c r="F93">
+        <v>8.6</v>
+      </c>
+      <c r="G93">
+        <v>6110</v>
+      </c>
+      <c r="H93">
+        <v>15</v>
+      </c>
+      <c r="I93" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>22</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45655</v>
+      </c>
+      <c r="F94">
+        <v>96.2</v>
+      </c>
+      <c r="G94">
+        <v>44635</v>
+      </c>
+      <c r="H94">
+        <v>34</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45656</v>
+      </c>
+      <c r="F95">
+        <v>236.8</v>
+      </c>
+      <c r="G95">
+        <v>233812</v>
+      </c>
+      <c r="H95">
+        <v>55</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>21</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45657</v>
+      </c>
+      <c r="F96">
+        <v>30.9</v>
+      </c>
+      <c r="G96">
+        <v>25847</v>
+      </c>
+      <c r="H96">
+        <v>31</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>88</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45592</v>
+      </c>
+      <c r="F97">
+        <v>188</v>
+      </c>
+      <c r="G97">
+        <v>81493</v>
+      </c>
+      <c r="H97">
+        <v>103</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>138</v>
+      </c>
+      <c r="D98">
+        <v>142</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45593</v>
+      </c>
+      <c r="F98">
+        <v>344.7</v>
+      </c>
+      <c r="G98">
+        <v>236195</v>
+      </c>
+      <c r="H98">
+        <v>144</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="K98" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45594</v>
+      </c>
+      <c r="F99">
+        <v>8.6</v>
+      </c>
+      <c r="G99">
+        <v>6110</v>
+      </c>
+      <c r="H99">
+        <v>15</v>
+      </c>
+      <c r="I99" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K99" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>22</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45655</v>
+      </c>
+      <c r="F100">
+        <v>96.2</v>
+      </c>
+      <c r="G100">
+        <v>44635</v>
+      </c>
+      <c r="H100">
+        <v>34</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45656</v>
+      </c>
+      <c r="F101">
+        <v>236.8</v>
+      </c>
+      <c r="G101">
+        <v>233812</v>
+      </c>
+      <c r="H101">
+        <v>55</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102">
+        <v>21</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45657</v>
+      </c>
+      <c r="F102">
+        <v>30.9</v>
+      </c>
+      <c r="G102">
+        <v>25847</v>
+      </c>
+      <c r="H102">
+        <v>31</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/picos_xenofobia_historico_bi.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/picos_xenofobia_historico_bi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/picos xenofobia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\picos xenofobia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51A3DE-BBD9-8D4C-975C-D330B0B53BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FAA36-CA6E-4083-88F2-7B5F4367F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="35520" windowHeight="19800" xr2:uid="{3C7ECE9C-8B54-4B88-BF3F-9FA926AA9D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C7ECE9C-8B54-4B88-BF3F-9FA926AA9D40}"/>
   </bookViews>
   <sheets>
     <sheet name="picos_xenofobia_historico_limpi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="129">
   <si>
     <t>Pais</t>
   </si>
@@ -269,6 +269,144 @@
   </si>
   <si>
     <t>201.1</t>
+  </si>
+  <si>
+    <t>745.6</t>
+  </si>
+  <si>
+    <t>305.9</t>
+  </si>
+  <si>
+    <t>691.6</t>
+  </si>
+  <si>
+    <t>181.7</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>60.9</t>
+  </si>
+  <si>
+    <t>53.7</t>
+  </si>
+  <si>
+    <t>156.1</t>
+  </si>
+  <si>
+    <t>55.7</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>62.4</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>209.8</t>
+  </si>
+  <si>
+    <t>645.4</t>
+  </si>
+  <si>
+    <t>102.1</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>93.5</t>
+  </si>
+  <si>
+    <t>57.6</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>57.4</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>111.9</t>
+  </si>
+  <si>
+    <t>75.8</t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t>169.2</t>
+  </si>
+  <si>
+    <t>95.6</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>52.2</t>
+  </si>
+  <si>
+    <t>70.8</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>61.6</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>144.2</t>
+  </si>
+  <si>
+    <t>209.5</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>1020.8</t>
+  </si>
+  <si>
+    <t>114.4</t>
+  </si>
+  <si>
+    <t>123.5</t>
+  </si>
+  <si>
+    <t>310.3</t>
+  </si>
+  <si>
+    <t>37.8</t>
   </si>
 </sst>
 </file>
@@ -735,10 +873,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -784,18 +927,30 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,17 +966,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}" name="xenofobia_tipos" displayName="xenofobia_tipos" ref="A1:K102" totalsRowShown="0">
-  <autoFilter ref="A1:K102" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}" name="xenofobia_tipos" displayName="xenofobia_tipos" ref="A1:K214" totalsRowShown="0">
+  <autoFilter ref="A1:K214" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E502758A-6EA7-4C9A-A857-EC7783320980}" name="Pais"/>
     <tableColumn id="2" xr3:uid="{F89E1C24-17C6-4971-8B05-40F9A5025672}" name="Llamados a la accion"/>
     <tableColumn id="3" xr3:uid="{5223FEA6-40E4-4430-9FE0-0962A10261E6}" name="Sanciones Judiciales"/>
     <tableColumn id="4" xr3:uid="{9A8ED619-F690-44A9-B157-6ABE42D24510}" name="Insultos"/>
-    <tableColumn id="5" xr3:uid="{3B5EBCA6-945F-4933-8952-586A46E9F501}" name="Fecha pico" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{2DE12992-8FF2-4BD1-B6B2-D5DC87FBCCEF}" name="Total de impacto de publicaciones"/>
-    <tableColumn id="7" xr3:uid="{493AAB49-51BA-4FFC-B4BD-C4D4D51F1F0D}" name="Total Impresiones (veces que se vieron estos mensajes)"/>
-    <tableColumn id="8" xr3:uid="{CFC90847-3BC3-4B94-85F7-5344D8D6D307}" name="Xenofobia"/>
+    <tableColumn id="5" xr3:uid="{3B5EBCA6-945F-4933-8952-586A46E9F501}" name="Fecha pico" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2DE12992-8FF2-4BD1-B6B2-D5DC87FBCCEF}" name="Total de impacto de publicaciones" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{493AAB49-51BA-4FFC-B4BD-C4D4D51F1F0D}" name="Total Impresiones (veces que se vieron estos mensajes)" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{CFC90847-3BC3-4B94-85F7-5344D8D6D307}" name="Xenofobia" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{EC429FD8-9B4C-4CD4-9215-0AA730FEDC8F}" name="% Llamados a la accion" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{178468BE-9793-48BF-B123-D15B14CE7C18}" name="% Sanciones Judiciales" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{3670110A-10C8-4D92-9E26-7AC91A85F7E5}" name="% Insultos" dataDxfId="0"/>
@@ -1147,26 +1302,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EA453C-BF10-42FD-88AA-2E4B44D97766}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" customWidth="1"/>
-    <col min="6" max="6" width="32.796875" customWidth="1"/>
-    <col min="7" max="7" width="51.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" customWidth="1"/>
-    <col min="9" max="9" width="24.3984375" customWidth="1"/>
-    <col min="10" max="10" width="23.796875" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="51.375" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="23.75" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1217,26 +1372,26 @@
       <c r="E2" s="1">
         <v>45006</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>2030720</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>1117</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>0.05</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>0.08</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1252,26 +1407,26 @@
       <c r="E3" s="1">
         <v>45099</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>299917</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>178</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>0.11</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1287,26 +1442,26 @@
       <c r="E4" s="1">
         <v>44980</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>25170</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>32</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>0.03</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>0.09</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1322,26 +1477,26 @@
       <c r="E5" s="1">
         <v>45102</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>24243</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>33</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1357,26 +1512,26 @@
       <c r="E6" s="1">
         <v>45103</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>95011</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>49</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>0.02</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>0.02</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1392,26 +1547,26 @@
       <c r="E7" s="1">
         <v>45104</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>37010</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>32</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1427,26 +1582,26 @@
       <c r="E8" s="1">
         <v>45032</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>53215</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>64</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>0.08</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>0.22</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1462,26 +1617,26 @@
       <c r="E9" s="1">
         <v>45033</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>94299</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>114</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>0.21</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1497,26 +1652,26 @@
       <c r="E10" s="1">
         <v>45034</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>24437</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>30</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>0.3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>0.13</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1532,26 +1687,26 @@
       <c r="E11" s="1">
         <v>45018</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>38095</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>46</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>0.13</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>0.04</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1567,26 +1722,26 @@
       <c r="E12" s="1">
         <v>45019</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>63718</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>58</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1602,26 +1757,26 @@
       <c r="E13" s="1">
         <v>45020</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>69168</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>71</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>0.2</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1637,26 +1792,26 @@
       <c r="E14" s="1">
         <v>45285</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>890294</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>351</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>0.05</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>0.19</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1672,26 +1827,26 @@
       <c r="E15" s="1">
         <v>45286</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>1067706</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>814</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>0.4</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1707,26 +1862,26 @@
       <c r="E16" s="1">
         <v>45287</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>204574</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>178</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>0.18</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>0.27</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1742,26 +1897,26 @@
       <c r="E17" s="1">
         <v>45234</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>580362</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>339</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>0.12</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1777,26 +1932,26 @@
       <c r="E18" s="1">
         <v>45235</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>185293</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>180</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>0.02</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1812,26 +1967,26 @@
       <c r="E19" s="1">
         <v>45236</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>93951</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>96</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <v>0.03</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1847,26 +2002,26 @@
       <c r="E20" s="1">
         <v>45191</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>1254370</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>595</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>0.17</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1882,26 +2037,26 @@
       <c r="E21" s="1">
         <v>45100</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>2556979</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>509</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <v>0.05</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="3">
         <v>0.18</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="3">
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1917,26 +2072,26 @@
       <c r="E22" s="1">
         <v>45101</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>2866408</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>118</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <v>0.04</v>
       </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1952,26 +2107,26 @@
       <c r="E23" s="1">
         <v>45152</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>9231</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>19</v>
       </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>0.32</v>
       </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1987,26 +2142,26 @@
       <c r="E24" s="1">
         <v>45153</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>98276</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>22</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>0.05</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="3">
         <v>0.27</v>
       </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2022,26 +2177,26 @@
       <c r="E25" s="1">
         <v>45154</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>3741</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>8</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>0.12</v>
       </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2057,26 +2212,26 @@
       <c r="E26" s="1">
         <v>45250</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>25934</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>38</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>0.32</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="3">
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2092,26 +2247,26 @@
       <c r="E27" s="1">
         <v>45251</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>82065</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>42</v>
       </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>0.02</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2127,26 +2282,26 @@
       <c r="E28" s="1">
         <v>45229</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>1628</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>8</v>
       </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
         <v>0.38</v>
       </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2162,26 +2317,26 @@
       <c r="E29" s="1">
         <v>45230</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>517</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>3</v>
       </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>0.33</v>
       </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2197,26 +2352,26 @@
       <c r="E30" s="1">
         <v>45285</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>525490</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>339</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <v>0.06</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2232,26 +2387,26 @@
       <c r="E31" s="1">
         <v>45286</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>372245</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>521</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <v>0.05</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="3">
         <v>0.49</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2267,26 +2422,26 @@
       <c r="E32" s="1">
         <v>45287</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>280723</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>474</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="3">
         <v>0.13</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="3">
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2302,26 +2457,26 @@
       <c r="E33" s="1">
         <v>45288</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>122901</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>103</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="3">
         <v>0.24</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="3">
         <v>0.02</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="3">
         <v>0.91</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2337,26 +2492,26 @@
       <c r="E34" s="1">
         <v>45289</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>104277</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>122</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <v>0.03</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="3">
         <v>0.02</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2372,26 +2527,26 @@
       <c r="E35" s="1">
         <v>45290</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>5667</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>14</v>
       </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2407,26 +2562,26 @@
       <c r="E36" s="1">
         <v>45231</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>363300</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>392</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="3">
         <v>0.39</v>
       </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
         <v>0.71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2442,26 +2597,26 @@
       <c r="E37" s="1">
         <v>45232</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>806201</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>605</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="3">
         <v>0.09</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="3">
         <v>0.23</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2477,26 +2632,26 @@
       <c r="E38" s="1">
         <v>45233</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>464812</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>338</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="3">
         <v>0.25</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="3">
         <v>0.49</v>
       </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2512,26 +2667,26 @@
       <c r="E39" s="1">
         <v>45234</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>261804</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>155</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="3">
         <v>0.26</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2547,26 +2702,26 @@
       <c r="E40" s="1">
         <v>45235</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>204325</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>240</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="3">
         <v>0.05</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="3">
         <v>0.13</v>
       </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2582,26 +2737,26 @@
       <c r="E41" s="1">
         <v>45236</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>14152</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>28</v>
       </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>0.04</v>
       </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2617,26 +2772,26 @@
       <c r="E42" s="1">
         <v>45229</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>64754</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>71</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
         <v>0.04</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2652,26 +2807,26 @@
       <c r="E43" s="1">
         <v>45230</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>58818</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>34</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="3">
         <v>0.21</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>0.88</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2687,26 +2842,26 @@
       <c r="E44" s="1">
         <v>45313</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>163030</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>65</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
         <v>0.02</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="3">
         <v>0.05</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2722,26 +2877,26 @@
       <c r="E45" s="1">
         <v>45314</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>58821</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>75</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="3">
         <v>0.17</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="3">
         <v>0.01</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="3">
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2757,26 +2912,26 @@
       <c r="E46" s="1">
         <v>45315</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>25853</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>26</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="3">
         <v>0.08</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="3">
         <v>0.04</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2792,26 +2947,26 @@
       <c r="E47" s="1">
         <v>45301</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>37555</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>50</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="3">
         <v>0.04</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="3">
         <v>0.22</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2827,26 +2982,26 @@
       <c r="E48" s="1">
         <v>45299</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>68429</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>82</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="3">
         <v>0.11</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="3">
         <v>0.13</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="3">
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2862,26 +3017,26 @@
       <c r="E49" s="1">
         <v>45300</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>160397</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>114</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="3">
         <v>0.15</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="3">
         <v>0.18</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="3">
         <v>0.81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2897,26 +3052,26 @@
       <c r="E50" s="1">
         <v>45301</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>517188</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>728</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="3">
         <v>0.05</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="3">
         <v>0.77</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2932,26 +3087,26 @@
       <c r="E51" s="1">
         <v>45302</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>52443</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>76</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="3">
         <v>0.24</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="3">
         <v>0.12</v>
       </c>
-      <c r="K51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2967,26 +3122,26 @@
       <c r="E52" s="1">
         <v>45303</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>58551</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>70</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="3">
         <v>0.03</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3002,26 +3157,26 @@
       <c r="E53" s="1">
         <v>45304</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>139176</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>180</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="3">
         <v>0.01</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="3">
         <v>0.01</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3037,26 +3192,26 @@
       <c r="E54" s="1">
         <v>45305</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>21946</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>36</v>
       </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>0.11</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="3">
         <v>0.89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3072,26 +3227,26 @@
       <c r="E55" s="1">
         <v>45306</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>41612</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>20</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="3">
         <v>0.1</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="3">
         <v>0.1</v>
       </c>
-      <c r="K55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3107,26 +3262,26 @@
       <c r="E56" s="1">
         <v>45299</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>53162</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>57</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="3">
         <v>0.23</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3142,26 +3297,26 @@
       <c r="E57" s="1">
         <v>45300</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>82717</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>128</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="3">
         <v>0.22</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="3">
         <v>0.19</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3177,26 +3332,26 @@
       <c r="E58" s="1">
         <v>45313</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>163030</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>65</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="3">
         <v>0.02</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="3">
         <v>0.05</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3212,26 +3367,26 @@
       <c r="E59" s="1">
         <v>45314</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>58821</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>75</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="3">
         <v>0.17</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="3">
         <v>0.01</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="3">
         <v>0.93</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3247,26 +3402,26 @@
       <c r="E60" s="1">
         <v>45315</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>25853</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <v>26</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="3">
         <v>0.08</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="3">
         <v>0.04</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3282,26 +3437,26 @@
       <c r="E61" s="1">
         <v>45301</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>37555</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>50</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="3">
         <v>0.04</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="3">
         <v>0.22</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3317,26 +3472,26 @@
       <c r="E62" s="1">
         <v>45299</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>68429</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <v>82</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="3">
         <v>0.11</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="3">
         <v>0.13</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="3">
         <v>0.85</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3352,26 +3507,26 @@
       <c r="E63" s="1">
         <v>45300</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>160397</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <v>114</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="3">
         <v>0.15</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="3">
         <v>0.18</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="3">
         <v>0.81</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3387,26 +3542,26 @@
       <c r="E64" s="1">
         <v>45301</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>517188</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <v>728</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="3">
         <v>0.05</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="3">
         <v>0.77</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3422,26 +3577,26 @@
       <c r="E65" s="1">
         <v>45302</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>52443</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>76</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="3">
         <v>0.24</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="3">
         <v>0.12</v>
       </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3457,26 +3612,26 @@
       <c r="E66" s="1">
         <v>45303</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>58551</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>70</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="3">
         <v>0.03</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -3492,26 +3647,26 @@
       <c r="E67" s="1">
         <v>45304</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>139176</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <v>180</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="3">
         <v>0.01</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="3">
         <v>0.01</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3527,26 +3682,26 @@
       <c r="E68" s="1">
         <v>45305</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <v>21946</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <v>36</v>
       </c>
-      <c r="I68" s="2">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2">
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
         <v>0.11</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="3">
         <v>0.89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3562,26 +3717,26 @@
       <c r="E69" s="1">
         <v>45306</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>41612</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <v>20</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="3">
         <v>0.1</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="3">
         <v>0.1</v>
       </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3597,26 +3752,26 @@
       <c r="E70" s="1">
         <v>45299</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <v>53162</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2">
         <v>57</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="3">
         <v>0.23</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -3632,26 +3787,26 @@
       <c r="E71" s="1">
         <v>45300</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>82717</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <v>128</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="3">
         <v>0.22</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="3">
         <v>0.19</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3667,26 +3822,26 @@
       <c r="E72" s="1">
         <v>45342</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <v>1160003</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <v>111</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="3">
         <v>0.01</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="3">
         <v>0.35</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3702,26 +3857,26 @@
       <c r="E73" s="1">
         <v>45343</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>2172041</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <v>433</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="3">
         <v>0.02</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="3">
         <v>0.37</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="3">
         <v>0.83</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -3737,26 +3892,26 @@
       <c r="E74" s="1">
         <v>45344</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>10488316</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <v>1898</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="3">
         <v>0.03</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="3">
         <v>0.27</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="3">
         <v>0.92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3772,26 +3927,26 @@
       <c r="E75" s="1">
         <v>45345</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>7074526</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <v>1134</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="3">
         <v>0.03</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="3">
         <v>0.94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -3807,26 +3962,26 @@
       <c r="E76" s="1">
         <v>45346</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <v>641368</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <v>108</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="3">
         <v>0.25</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="3">
         <v>0.91</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3842,26 +3997,26 @@
       <c r="E77" s="1">
         <v>45502</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>407028</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2">
         <v>222</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="3">
         <v>0.05</v>
       </c>
-      <c r="J77" s="2">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3877,26 +4032,26 @@
       <c r="E78" s="1">
         <v>45503</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>739695</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <v>288</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="3">
         <v>0.02</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="3">
         <v>0.01</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3912,26 +4067,26 @@
       <c r="E79" s="1">
         <v>45504</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>50129</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <v>41</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="3">
         <v>0.02</v>
       </c>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3947,26 +4102,26 @@
       <c r="E80" s="1">
         <v>45502</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>114290</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <v>186</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="3">
         <v>0.02</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="3">
         <v>0.11</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -3982,26 +4137,26 @@
       <c r="E81" s="1">
         <v>45503</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <v>124896</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2">
         <v>148</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="3">
         <v>0.01</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="3">
         <v>0.15</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -4017,26 +4172,26 @@
       <c r="E82" s="1">
         <v>45504</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>21824</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <v>20</v>
       </c>
-      <c r="I82" s="2">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2">
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
         <v>0.25</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -4052,26 +4207,26 @@
       <c r="E83" s="1">
         <v>45503</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>277899</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2">
         <v>164</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="3">
         <v>0.1</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="3">
         <v>0.04</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="3">
         <v>0.88</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -4087,26 +4242,26 @@
       <c r="E84" s="1">
         <v>45504</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>76857</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2">
         <v>64</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="3">
         <v>0.06</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="3">
         <v>0.11</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="3">
         <v>0.86</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -4122,26 +4277,26 @@
       <c r="E85" s="1">
         <v>45583</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <v>2005.3</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <v>4903635</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2">
         <v>272</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="3">
         <v>0.09</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="3">
         <v>0.25</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="3">
         <v>0.76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -4157,26 +4312,26 @@
       <c r="E86" s="1">
         <v>45584</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>944.5</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <v>10324513</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2">
         <v>154</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="3">
         <v>0.11</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="3">
         <v>0.24</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="3">
         <v>0.71</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -4192,26 +4347,26 @@
       <c r="E87" s="1">
         <v>45585</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>122</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="2">
         <v>15173</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="2">
         <v>20</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="3">
         <v>0.05</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="3">
         <v>0.2</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -4227,26 +4382,26 @@
       <c r="E88" s="1">
         <v>45624</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>1106.5</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <v>1069705</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="2">
         <v>242</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="3">
         <v>0.36</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="3">
         <v>0.43</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="3">
         <v>0.31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -4262,26 +4417,26 @@
       <c r="E89" s="1">
         <v>45625</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>4423</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <v>3854958</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
         <v>1700</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="3">
         <v>0.39</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="3">
         <v>0.48</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4297,26 +4452,26 @@
       <c r="E90" s="1">
         <v>45626</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>1161.5</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="2">
         <v>539712</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="2">
         <v>363</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="3">
         <v>0.48</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="3">
         <v>0.45</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="3">
         <v>0.22</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -4332,26 +4487,26 @@
       <c r="E91" s="1">
         <v>45592</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <v>188</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="2">
         <v>81493</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="2">
         <v>103</v>
       </c>
-      <c r="I91" s="2">
-        <v>0</v>
-      </c>
-      <c r="J91" s="2">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>0.85</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -4367,26 +4522,26 @@
       <c r="E92" s="1">
         <v>45593</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>344.7</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <v>236195</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <v>144</v>
       </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2">
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
         <v>0.96</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -4402,26 +4557,26 @@
       <c r="E93" s="1">
         <v>45594</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>8.6</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>6110</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2">
         <v>15</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="3">
         <v>0.8</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="3">
         <v>0.87</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -4437,26 +4592,26 @@
       <c r="E94" s="1">
         <v>45655</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>96.2</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <v>44635</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="2">
         <v>34</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="3">
         <v>0.24</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="3">
         <v>0.35</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -4472,26 +4627,26 @@
       <c r="E95" s="1">
         <v>45656</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>236.8</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <v>233812</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2">
         <v>55</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="3">
         <v>0.4</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="3">
         <v>0.16</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4507,26 +4662,26 @@
       <c r="E96" s="1">
         <v>45657</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>30.9</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <v>25847</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2">
         <v>31</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="3">
         <v>0.68</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="3">
         <v>0.16</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="3">
         <v>0.23</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -4542,26 +4697,26 @@
       <c r="E97" s="1">
         <v>45592</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>188</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>81493</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2">
         <v>103</v>
       </c>
-      <c r="I97" s="2">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2">
+      <c r="I97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
         <v>0.85</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -4577,26 +4732,26 @@
       <c r="E98" s="1">
         <v>45593</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>344.7</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <v>236195</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="2">
         <v>144</v>
       </c>
-      <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" s="2">
+      <c r="I98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
         <v>0.96</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -4612,26 +4767,26 @@
       <c r="E99" s="1">
         <v>45594</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>8.6</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>6110</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <v>15</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="3">
         <v>0.8</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="3">
         <v>0.87</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -4647,26 +4802,26 @@
       <c r="E100" s="1">
         <v>45655</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>96.2</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>44635</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <v>34</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="3">
         <v>0.24</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="3">
         <v>0.35</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4682,26 +4837,26 @@
       <c r="E101" s="1">
         <v>45656</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <v>236.8</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>233812</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="2">
         <v>55</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="3">
         <v>0.4</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="3">
         <v>0.16</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -4717,23 +4872,3943 @@
       <c r="E102" s="1">
         <v>45657</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
         <v>30.9</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="2">
         <v>25847</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="2">
         <v>31</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="3">
         <v>0.68</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="3">
         <v>0.16</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="3">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>106</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45663</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G103" s="2">
+        <v>424209</v>
+      </c>
+      <c r="H103" s="2">
+        <v>106</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>35</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45664</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G104" s="2">
+        <v>96849</v>
+      </c>
+      <c r="H104" s="2">
+        <v>35</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>73</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45740</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G105" s="2">
+        <v>84304</v>
+      </c>
+      <c r="H105" s="2">
+        <v>92</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>17</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45741</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G106" s="2">
+        <v>30507</v>
+      </c>
+      <c r="H106" s="2">
+        <v>23</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K106" s="3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45684</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G107" s="2">
+        <v>2136</v>
+      </c>
+      <c r="H107" s="2">
+        <v>3</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0</v>
+      </c>
+      <c r="K107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45685</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108" s="2">
+        <v>7007</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
+      <c r="K108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45686</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" s="2">
+        <v>5389</v>
+      </c>
+      <c r="H109" s="2">
+        <v>2</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45687</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G110" s="2">
+        <v>11232</v>
+      </c>
+      <c r="H110" s="2">
+        <v>4</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45688</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G111" s="2">
+        <v>27329</v>
+      </c>
+      <c r="H111" s="2">
+        <v>7</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45689</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G112" s="2">
+        <v>40641</v>
+      </c>
+      <c r="H112" s="2">
+        <v>4</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45690</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" s="2">
+        <v>384</v>
+      </c>
+      <c r="H113" s="2">
+        <v>2</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45691</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G114" s="2">
+        <v>37091</v>
+      </c>
+      <c r="H114" s="2">
+        <v>2</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45692</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="2">
+        <v>254</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <v>1</v>
+      </c>
+      <c r="K115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45693</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G116" s="2">
+        <v>5775</v>
+      </c>
+      <c r="H116" s="2">
+        <v>2</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45694</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" s="2">
+        <v>2996</v>
+      </c>
+      <c r="H117" s="2">
+        <v>2</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45695</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" s="2">
+        <v>124243</v>
+      </c>
+      <c r="H118" s="2">
+        <v>4</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45696</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G119" s="2">
+        <v>805478</v>
+      </c>
+      <c r="H119" s="2">
+        <v>31</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" s="1">
+        <v>45697</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G120" s="2">
+        <v>410783</v>
+      </c>
+      <c r="H120" s="2">
+        <v>3</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1">
+        <v>45698</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1">
+        <v>45700</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G122" s="2">
+        <v>581</v>
+      </c>
+      <c r="H122" s="2">
+        <v>2</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0</v>
+      </c>
+      <c r="K122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>45701</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G123" s="2">
+        <v>882</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>45704</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G124" s="2">
+        <v>7803</v>
+      </c>
+      <c r="H124" s="2">
+        <v>5</v>
+      </c>
+      <c r="I124" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>45705</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G125" s="2">
+        <v>149155</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
+        <v>1</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>45706</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="2">
+        <v>251</v>
+      </c>
+      <c r="H126" s="2">
+        <v>1</v>
+      </c>
+      <c r="I126" s="3">
+        <v>0</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" s="1">
+        <v>45707</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G127" s="2">
+        <v>29426</v>
+      </c>
+      <c r="H127" s="2">
+        <v>2</v>
+      </c>
+      <c r="I127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="K127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1">
+        <v>45708</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G128" s="2">
+        <v>2479</v>
+      </c>
+      <c r="H128" s="2">
+        <v>2</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>45709</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G129" s="2">
+        <v>6444</v>
+      </c>
+      <c r="H129" s="2">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0</v>
+      </c>
+      <c r="K129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" s="1">
+        <v>45710</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="2">
+        <v>1326</v>
+      </c>
+      <c r="H130" s="2">
+        <v>2</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+      <c r="K130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1">
+        <v>45711</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" s="2">
+        <v>216</v>
+      </c>
+      <c r="H131" s="2">
+        <v>2</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+      <c r="K131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132" s="1">
+        <v>45712</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G132" s="2">
+        <v>1413</v>
+      </c>
+      <c r="H132" s="2">
+        <v>4</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
+      <c r="K132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1">
+        <v>45713</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G133" s="2">
+        <v>69561</v>
+      </c>
+      <c r="H133" s="2">
+        <v>2</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>45714</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G134" s="2">
+        <v>2385</v>
+      </c>
+      <c r="H134" s="2">
+        <v>3</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" s="1">
+        <v>45715</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G135" s="2">
+        <v>346195</v>
+      </c>
+      <c r="H135" s="2">
+        <v>3</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136" s="1">
+        <v>45716</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G136" s="2">
+        <v>59472</v>
+      </c>
+      <c r="H136" s="2">
+        <v>2</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+      <c r="K136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1">
+        <v>45717</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137" s="2">
+        <v>81</v>
+      </c>
+      <c r="H137" s="2">
+        <v>2</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
+      <c r="K137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>45720</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1406</v>
+      </c>
+      <c r="H138" s="2">
+        <v>1</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0</v>
+      </c>
+      <c r="K138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>45722</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="2">
+        <v>347</v>
+      </c>
+      <c r="H139" s="2">
+        <v>1</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
+      <c r="K139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>45723</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G140" s="2">
+        <v>26143</v>
+      </c>
+      <c r="H140" s="2">
+        <v>1</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>1</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>45724</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="2">
+        <v>81</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>7</v>
+      </c>
+      <c r="E142" s="1">
+        <v>45725</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G142" s="2">
+        <v>6319738</v>
+      </c>
+      <c r="H142" s="2">
+        <v>7</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" s="1">
+        <v>45726</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G143" s="2">
+        <v>9448929</v>
+      </c>
+      <c r="H143" s="2">
+        <v>3</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="K143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1">
+        <v>45727</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1815</v>
+      </c>
+      <c r="H144" s="2">
+        <v>5</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" s="1">
+        <v>45728</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G145" s="2">
+        <v>157</v>
+      </c>
+      <c r="H145" s="2">
+        <v>4</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146" s="1">
+        <v>45729</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G146" s="2">
+        <v>61864</v>
+      </c>
+      <c r="H146" s="2">
+        <v>11</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K146" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" s="1">
+        <v>45731</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G147" s="2">
+        <v>948</v>
+      </c>
+      <c r="H147" s="2">
+        <v>2</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0</v>
+      </c>
+      <c r="K147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" s="1">
+        <v>45732</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G148" s="2">
+        <v>574</v>
+      </c>
+      <c r="H148" s="2">
+        <v>2</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+      <c r="K148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>45733</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G149" s="2">
+        <v>23426</v>
+      </c>
+      <c r="H149" s="2">
+        <v>1</v>
+      </c>
+      <c r="I149" s="3">
+        <v>0</v>
+      </c>
+      <c r="J149" s="3">
+        <v>0</v>
+      </c>
+      <c r="K149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>45734</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="2">
+        <v>506</v>
+      </c>
+      <c r="H150" s="2">
+        <v>1</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+      <c r="K150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>45735</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G151" s="2">
+        <v>2504</v>
+      </c>
+      <c r="H151" s="2">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3">
+        <v>0</v>
+      </c>
+      <c r="J151" s="3">
+        <v>0</v>
+      </c>
+      <c r="K151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" s="1">
+        <v>45736</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" s="2">
+        <v>180</v>
+      </c>
+      <c r="H152" s="2">
+        <v>2</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152" s="3">
+        <v>0</v>
+      </c>
+      <c r="K152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>31</v>
+      </c>
+      <c r="E153" s="1">
+        <v>45737</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G153" s="2">
+        <v>30652</v>
+      </c>
+      <c r="H153" s="2">
+        <v>31</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>8</v>
+      </c>
+      <c r="E154" s="1">
+        <v>45738</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1481742</v>
+      </c>
+      <c r="H154" s="2">
+        <v>9</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0</v>
+      </c>
+      <c r="J154" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="K154" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>45739</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>1</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0</v>
+      </c>
+      <c r="J155" s="3">
+        <v>1</v>
+      </c>
+      <c r="K155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>34</v>
+      </c>
+      <c r="D156">
+        <v>16</v>
+      </c>
+      <c r="E156" s="1">
+        <v>45740</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G156" s="2">
+        <v>2060500</v>
+      </c>
+      <c r="H156" s="2">
+        <v>41</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J156" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="K156" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>45741</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G157" s="2">
+        <v>3599524</v>
+      </c>
+      <c r="H157" s="2">
+        <v>4</v>
+      </c>
+      <c r="I157" s="3">
+        <v>0</v>
+      </c>
+      <c r="J157" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K157" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>17</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158" s="1">
+        <v>45742</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G158" s="2">
+        <v>335458</v>
+      </c>
+      <c r="H158" s="2">
+        <v>18</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0</v>
+      </c>
+      <c r="J158" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="K158" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>9</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159" s="1">
+        <v>45743</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G159" s="2">
+        <v>375038</v>
+      </c>
+      <c r="H159" s="2">
+        <v>13</v>
+      </c>
+      <c r="I159" s="3">
+        <v>0</v>
+      </c>
+      <c r="J159" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="K159" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>45744</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G160" s="2">
+        <v>5527</v>
+      </c>
+      <c r="H160" s="2">
+        <v>1</v>
+      </c>
+      <c r="I160" s="3">
+        <v>0</v>
+      </c>
+      <c r="J160" s="3">
+        <v>0</v>
+      </c>
+      <c r="K160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161" s="1">
+        <v>45684</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G161" s="2">
+        <v>2136</v>
+      </c>
+      <c r="H161" s="2">
+        <v>3</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0</v>
+      </c>
+      <c r="J161" s="3">
+        <v>0</v>
+      </c>
+      <c r="K161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1">
+        <v>45685</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G162" s="2">
+        <v>7007</v>
+      </c>
+      <c r="H162" s="2">
+        <v>1</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3">
+        <v>0</v>
+      </c>
+      <c r="K162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163" s="1">
+        <v>45686</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G163" s="2">
+        <v>5389</v>
+      </c>
+      <c r="H163" s="2">
+        <v>2</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164" s="1">
+        <v>45687</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G164" s="2">
+        <v>11232</v>
+      </c>
+      <c r="H164" s="2">
+        <v>4</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0</v>
+      </c>
+      <c r="J164" s="3">
+        <v>0</v>
+      </c>
+      <c r="K164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+      <c r="E165" s="1">
+        <v>45688</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G165" s="2">
+        <v>27329</v>
+      </c>
+      <c r="H165" s="2">
+        <v>7</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0</v>
+      </c>
+      <c r="J165" s="3">
+        <v>0</v>
+      </c>
+      <c r="K165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166" s="1">
+        <v>45689</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G166" s="2">
+        <v>40641</v>
+      </c>
+      <c r="H166" s="2">
+        <v>4</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0</v>
+      </c>
+      <c r="J166" s="3">
+        <v>0</v>
+      </c>
+      <c r="K166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167" s="1">
+        <v>45690</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G167" s="2">
+        <v>384</v>
+      </c>
+      <c r="H167" s="2">
+        <v>2</v>
+      </c>
+      <c r="I167" s="3">
+        <v>0</v>
+      </c>
+      <c r="J167" s="3">
+        <v>0</v>
+      </c>
+      <c r="K167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168" s="1">
+        <v>45691</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G168" s="2">
+        <v>37091</v>
+      </c>
+      <c r="H168" s="2">
+        <v>2</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0</v>
+      </c>
+      <c r="J168" s="3">
+        <v>0</v>
+      </c>
+      <c r="K168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>45692</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G169" s="2">
+        <v>254</v>
+      </c>
+      <c r="H169" s="2">
+        <v>1</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0</v>
+      </c>
+      <c r="J169" s="3">
+        <v>1</v>
+      </c>
+      <c r="K169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170" s="1">
+        <v>45693</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G170" s="2">
+        <v>5775</v>
+      </c>
+      <c r="H170" s="2">
+        <v>2</v>
+      </c>
+      <c r="I170" s="3">
+        <v>0</v>
+      </c>
+      <c r="J170" s="3">
+        <v>0</v>
+      </c>
+      <c r="K170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>45694</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G171" s="2">
+        <v>2996</v>
+      </c>
+      <c r="H171" s="2">
+        <v>2</v>
+      </c>
+      <c r="I171" s="3">
+        <v>0</v>
+      </c>
+      <c r="J171" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K171" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172" s="1">
+        <v>45695</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G172" s="2">
+        <v>124243</v>
+      </c>
+      <c r="H172" s="2">
+        <v>4</v>
+      </c>
+      <c r="I172" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J172" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K172" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173">
+        <v>28</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173" s="1">
+        <v>45696</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G173" s="2">
+        <v>805478</v>
+      </c>
+      <c r="H173" s="2">
+        <v>31</v>
+      </c>
+      <c r="I173" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J173" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K173" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174" s="1">
+        <v>45697</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G174" s="2">
+        <v>410783</v>
+      </c>
+      <c r="H174" s="2">
+        <v>3</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0</v>
+      </c>
+      <c r="J174" s="3">
+        <v>0</v>
+      </c>
+      <c r="K174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>45698</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>1</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0</v>
+      </c>
+      <c r="J175" s="3">
+        <v>0</v>
+      </c>
+      <c r="K175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176" s="1">
+        <v>45700</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G176" s="2">
+        <v>581</v>
+      </c>
+      <c r="H176" s="2">
+        <v>2</v>
+      </c>
+      <c r="I176" s="3">
+        <v>0</v>
+      </c>
+      <c r="J176" s="3">
+        <v>0</v>
+      </c>
+      <c r="K176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1">
+        <v>45701</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G177" s="2">
+        <v>882</v>
+      </c>
+      <c r="H177" s="2">
+        <v>1</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0</v>
+      </c>
+      <c r="J177" s="3">
+        <v>0</v>
+      </c>
+      <c r="K177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178" s="1">
+        <v>45704</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G178" s="2">
+        <v>7803</v>
+      </c>
+      <c r="H178" s="2">
+        <v>5</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J178" s="3">
+        <v>0</v>
+      </c>
+      <c r="K178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1">
+        <v>45705</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G179" s="2">
+        <v>149155</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0</v>
+      </c>
+      <c r="J179" s="3">
+        <v>1</v>
+      </c>
+      <c r="K179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" s="1">
+        <v>45706</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180" s="2">
+        <v>251</v>
+      </c>
+      <c r="H180" s="2">
+        <v>1</v>
+      </c>
+      <c r="I180" s="3">
+        <v>0</v>
+      </c>
+      <c r="J180" s="3">
+        <v>0</v>
+      </c>
+      <c r="K180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181" s="1">
+        <v>45707</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G181" s="2">
+        <v>29426</v>
+      </c>
+      <c r="H181" s="2">
+        <v>2</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0</v>
+      </c>
+      <c r="J181" s="3">
+        <v>0</v>
+      </c>
+      <c r="K181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182" s="1">
+        <v>45708</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G182" s="2">
+        <v>2479</v>
+      </c>
+      <c r="H182" s="2">
+        <v>2</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0</v>
+      </c>
+      <c r="J182" s="3">
+        <v>0</v>
+      </c>
+      <c r="K182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" s="1">
+        <v>45709</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G183" s="2">
+        <v>6444</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0</v>
+      </c>
+      <c r="J183" s="3">
+        <v>0</v>
+      </c>
+      <c r="K183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184" s="1">
+        <v>45710</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G184" s="2">
+        <v>1326</v>
+      </c>
+      <c r="H184" s="2">
+        <v>2</v>
+      </c>
+      <c r="I184" s="3">
+        <v>0</v>
+      </c>
+      <c r="J184" s="3">
+        <v>0</v>
+      </c>
+      <c r="K184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185" s="1">
+        <v>45711</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="2">
+        <v>216</v>
+      </c>
+      <c r="H185" s="2">
+        <v>2</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J185" s="3">
+        <v>0</v>
+      </c>
+      <c r="K185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+      <c r="E186" s="1">
+        <v>45712</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G186" s="2">
+        <v>1413</v>
+      </c>
+      <c r="H186" s="2">
+        <v>4</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0</v>
+      </c>
+      <c r="J186" s="3">
+        <v>0</v>
+      </c>
+      <c r="K186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187" s="1">
+        <v>45713</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G187" s="2">
+        <v>69561</v>
+      </c>
+      <c r="H187" s="2">
+        <v>2</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0</v>
+      </c>
+      <c r="J187" s="3">
+        <v>0</v>
+      </c>
+      <c r="K187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" s="1">
+        <v>45714</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G188" s="2">
+        <v>2385</v>
+      </c>
+      <c r="H188" s="2">
+        <v>3</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="J188" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="K188" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189" s="1">
+        <v>45715</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G189" s="2">
+        <v>346195</v>
+      </c>
+      <c r="H189" s="2">
+        <v>3</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0</v>
+      </c>
+      <c r="J189" s="3">
+        <v>0</v>
+      </c>
+      <c r="K189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190" s="1">
+        <v>45716</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G190" s="2">
+        <v>59472</v>
+      </c>
+      <c r="H190" s="2">
+        <v>2</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0</v>
+      </c>
+      <c r="J190" s="3">
+        <v>0</v>
+      </c>
+      <c r="K190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" s="1">
+        <v>45717</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" s="2">
+        <v>81</v>
+      </c>
+      <c r="H191" s="2">
+        <v>2</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0</v>
+      </c>
+      <c r="J191" s="3">
+        <v>0</v>
+      </c>
+      <c r="K191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" s="1">
+        <v>45720</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" s="2">
+        <v>1406</v>
+      </c>
+      <c r="H192" s="2">
+        <v>1</v>
+      </c>
+      <c r="I192" s="3">
+        <v>0</v>
+      </c>
+      <c r="J192" s="3">
+        <v>0</v>
+      </c>
+      <c r="K192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>45722</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193" s="2">
+        <v>347</v>
+      </c>
+      <c r="H193" s="2">
+        <v>1</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0</v>
+      </c>
+      <c r="J193" s="3">
+        <v>0</v>
+      </c>
+      <c r="K193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" s="1">
+        <v>45723</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G194" s="2">
+        <v>26143</v>
+      </c>
+      <c r="H194" s="2">
+        <v>1</v>
+      </c>
+      <c r="I194" s="3">
+        <v>0</v>
+      </c>
+      <c r="J194" s="3">
+        <v>1</v>
+      </c>
+      <c r="K194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>45724</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G195" s="2">
+        <v>81</v>
+      </c>
+      <c r="H195" s="2">
+        <v>1</v>
+      </c>
+      <c r="I195" s="3">
+        <v>0</v>
+      </c>
+      <c r="J195" s="3">
+        <v>0</v>
+      </c>
+      <c r="K195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>7</v>
+      </c>
+      <c r="E196" s="1">
+        <v>45725</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G196" s="2">
+        <v>6319738</v>
+      </c>
+      <c r="H196" s="2">
+        <v>7</v>
+      </c>
+      <c r="I196" s="3">
+        <v>0</v>
+      </c>
+      <c r="J196" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K196" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197" s="1">
+        <v>45726</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G197" s="2">
+        <v>9448929</v>
+      </c>
+      <c r="H197" s="2">
+        <v>3</v>
+      </c>
+      <c r="I197" s="3">
+        <v>0</v>
+      </c>
+      <c r="J197" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="K197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" s="1">
+        <v>45727</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G198" s="2">
+        <v>1815</v>
+      </c>
+      <c r="H198" s="2">
+        <v>5</v>
+      </c>
+      <c r="I198" s="3">
+        <v>0</v>
+      </c>
+      <c r="J198" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199" s="1">
+        <v>45728</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G199" s="2">
+        <v>157</v>
+      </c>
+      <c r="H199" s="2">
+        <v>4</v>
+      </c>
+      <c r="I199" s="3">
+        <v>0</v>
+      </c>
+      <c r="J199" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K199" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>9</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200" s="1">
+        <v>45729</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G200" s="2">
+        <v>61864</v>
+      </c>
+      <c r="H200" s="2">
+        <v>11</v>
+      </c>
+      <c r="I200" s="3">
+        <v>0</v>
+      </c>
+      <c r="J200" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K200" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201" s="1">
+        <v>45731</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G201" s="2">
+        <v>948</v>
+      </c>
+      <c r="H201" s="2">
+        <v>2</v>
+      </c>
+      <c r="I201" s="3">
+        <v>0</v>
+      </c>
+      <c r="J201" s="3">
+        <v>0</v>
+      </c>
+      <c r="K201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202" s="1">
+        <v>45732</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G202" s="2">
+        <v>574</v>
+      </c>
+      <c r="H202" s="2">
+        <v>2</v>
+      </c>
+      <c r="I202" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J202" s="3">
+        <v>0</v>
+      </c>
+      <c r="K202" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203" s="1">
+        <v>45733</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G203" s="2">
+        <v>23426</v>
+      </c>
+      <c r="H203" s="2">
+        <v>1</v>
+      </c>
+      <c r="I203" s="3">
+        <v>0</v>
+      </c>
+      <c r="J203" s="3">
+        <v>0</v>
+      </c>
+      <c r="K203" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204" s="1">
+        <v>45734</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G204" s="2">
+        <v>506</v>
+      </c>
+      <c r="H204" s="2">
+        <v>1</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0</v>
+      </c>
+      <c r="J204" s="3">
+        <v>0</v>
+      </c>
+      <c r="K204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" s="1">
+        <v>45735</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G205" s="2">
+        <v>2504</v>
+      </c>
+      <c r="H205" s="2">
+        <v>1</v>
+      </c>
+      <c r="I205" s="3">
+        <v>0</v>
+      </c>
+      <c r="J205" s="3">
+        <v>0</v>
+      </c>
+      <c r="K205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" s="1">
+        <v>45736</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G206" s="2">
+        <v>180</v>
+      </c>
+      <c r="H206" s="2">
+        <v>2</v>
+      </c>
+      <c r="I206" s="3">
+        <v>0</v>
+      </c>
+      <c r="J206" s="3">
+        <v>0</v>
+      </c>
+      <c r="K206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>31</v>
+      </c>
+      <c r="E207" s="1">
+        <v>45737</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G207" s="2">
+        <v>30652</v>
+      </c>
+      <c r="H207" s="2">
+        <v>31</v>
+      </c>
+      <c r="I207" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J207" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>8</v>
+      </c>
+      <c r="E208" s="1">
+        <v>45738</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G208" s="2">
+        <v>1481742</v>
+      </c>
+      <c r="H208" s="2">
+        <v>9</v>
+      </c>
+      <c r="I208" s="3">
+        <v>0</v>
+      </c>
+      <c r="J208" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="K208" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" s="1">
+        <v>45739</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0</v>
+      </c>
+      <c r="H209" s="2">
+        <v>1</v>
+      </c>
+      <c r="I209" s="3">
+        <v>0</v>
+      </c>
+      <c r="J209" s="3">
+        <v>1</v>
+      </c>
+      <c r="K209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>34</v>
+      </c>
+      <c r="D210">
+        <v>16</v>
+      </c>
+      <c r="E210" s="1">
+        <v>45740</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G210" s="2">
+        <v>2060500</v>
+      </c>
+      <c r="H210" s="2">
+        <v>41</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J210" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="K210" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" s="1">
+        <v>45741</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G211" s="2">
+        <v>3599524</v>
+      </c>
+      <c r="H211" s="2">
+        <v>4</v>
+      </c>
+      <c r="I211" s="3">
+        <v>0</v>
+      </c>
+      <c r="J211" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K211" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>17</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212" s="1">
+        <v>45742</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G212" s="2">
+        <v>335458</v>
+      </c>
+      <c r="H212" s="2">
+        <v>18</v>
+      </c>
+      <c r="I212" s="3">
+        <v>0</v>
+      </c>
+      <c r="J212" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="K212" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>9</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213" s="1">
+        <v>45743</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G213" s="2">
+        <v>375038</v>
+      </c>
+      <c r="H213" s="2">
+        <v>13</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0</v>
+      </c>
+      <c r="J213" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="K213" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" s="1">
+        <v>45744</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G214" s="2">
+        <v>5527</v>
+      </c>
+      <c r="H214" s="2">
+        <v>1</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0</v>
+      </c>
+      <c r="J214" s="3">
+        <v>0</v>
+      </c>
+      <c r="K214" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/picos_xenofobia_historico_bi.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/picos_xenofobia_historico_bi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\picos xenofobia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/picos xenofobia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FAA36-CA6E-4083-88F2-7B5F4367F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F283B464-0F66-574C-A29A-3D776160FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C7ECE9C-8B54-4B88-BF3F-9FA926AA9D40}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{3C7ECE9C-8B54-4B88-BF3F-9FA926AA9D40}"/>
   </bookViews>
   <sheets>
     <sheet name="picos_xenofobia_historico_limpi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="129">
   <si>
     <t>Pais</t>
   </si>
@@ -950,7 +950,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -966,8 +966,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}" name="xenofobia_tipos" displayName="xenofobia_tipos" ref="A1:K214" totalsRowShown="0">
-  <autoFilter ref="A1:K214" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}" name="xenofobia_tipos" displayName="xenofobia_tipos" ref="A1:K223" totalsRowShown="0">
+  <autoFilter ref="A1:K223" xr:uid="{E15ABF38-EBE7-4CC1-97A4-8C4F71EF7476}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E502758A-6EA7-4C9A-A857-EC7783320980}" name="Pais"/>
     <tableColumn id="2" xr3:uid="{F89E1C24-17C6-4971-8B05-40F9A5025672}" name="Llamados a la accion"/>
@@ -1302,26 +1302,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EA453C-BF10-42FD-88AA-2E4B44D97766}">
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:K223"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="32.75" customWidth="1"/>
-    <col min="7" max="7" width="51.375" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="24.375" customWidth="1"/>
-    <col min="10" max="10" width="23.75" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="6" max="6" width="32.796875" customWidth="1"/>
+    <col min="7" max="7" width="51.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" customWidth="1"/>
+    <col min="10" max="10" width="23.796875" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -8809,6 +8809,321 @@
       </c>
       <c r="K214" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215">
+        <v>9</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>89</v>
+      </c>
+      <c r="E215" s="1">
+        <v>45816</v>
+      </c>
+      <c r="F215" s="2">
+        <v>640.79999999999995</v>
+      </c>
+      <c r="G215" s="2">
+        <v>1065172</v>
+      </c>
+      <c r="H215" s="2">
+        <v>89</v>
+      </c>
+      <c r="I215" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J215" s="3">
+        <v>0</v>
+      </c>
+      <c r="K215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>112</v>
+      </c>
+      <c r="E216" s="1">
+        <v>45817</v>
+      </c>
+      <c r="F216" s="2">
+        <v>477.7</v>
+      </c>
+      <c r="G216" s="2">
+        <v>104949</v>
+      </c>
+      <c r="H216" s="2">
+        <v>112</v>
+      </c>
+      <c r="I216" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="J216" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>18</v>
+      </c>
+      <c r="E217" s="1">
+        <v>45818</v>
+      </c>
+      <c r="F217" s="2">
+        <v>67.8</v>
+      </c>
+      <c r="G217" s="2">
+        <v>13531</v>
+      </c>
+      <c r="H217" s="2">
+        <v>18</v>
+      </c>
+      <c r="I217" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="J217" s="3">
+        <v>0</v>
+      </c>
+      <c r="K217" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218">
+        <v>317</v>
+      </c>
+      <c r="C218">
+        <v>201</v>
+      </c>
+      <c r="D218">
+        <v>628</v>
+      </c>
+      <c r="E218" s="1">
+        <v>45757</v>
+      </c>
+      <c r="F218" s="2">
+        <v>3597.9</v>
+      </c>
+      <c r="G218" s="2">
+        <v>1765530</v>
+      </c>
+      <c r="H218" s="2">
+        <v>881</v>
+      </c>
+      <c r="I218" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="J218" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="K218" s="3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219">
+        <v>186</v>
+      </c>
+      <c r="C219">
+        <v>94</v>
+      </c>
+      <c r="D219">
+        <v>276</v>
+      </c>
+      <c r="E219" s="1">
+        <v>45758</v>
+      </c>
+      <c r="F219" s="2">
+        <v>763.1</v>
+      </c>
+      <c r="G219" s="2">
+        <v>434758</v>
+      </c>
+      <c r="H219" s="2">
+        <v>488</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="J219" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="K219" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>113</v>
+      </c>
+      <c r="D220">
+        <v>115</v>
+      </c>
+      <c r="E220" s="1">
+        <v>45751</v>
+      </c>
+      <c r="F220" s="2">
+        <v>275.7</v>
+      </c>
+      <c r="G220" s="2">
+        <v>583192</v>
+      </c>
+      <c r="H220" s="2">
+        <v>116</v>
+      </c>
+      <c r="I220" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J220" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="K220" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>44</v>
+      </c>
+      <c r="D221">
+        <v>45</v>
+      </c>
+      <c r="E221" s="1">
+        <v>45752</v>
+      </c>
+      <c r="F221" s="2">
+        <v>125.1</v>
+      </c>
+      <c r="G221" s="2">
+        <v>179353</v>
+      </c>
+      <c r="H221" s="2">
+        <v>46</v>
+      </c>
+      <c r="I221" s="3">
+        <v>0</v>
+      </c>
+      <c r="J221" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="K221" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>113</v>
+      </c>
+      <c r="D222">
+        <v>115</v>
+      </c>
+      <c r="E222" s="1">
+        <v>45751</v>
+      </c>
+      <c r="F222" s="2">
+        <v>275.7</v>
+      </c>
+      <c r="G222" s="2">
+        <v>583192</v>
+      </c>
+      <c r="H222" s="2">
+        <v>116</v>
+      </c>
+      <c r="I222" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J222" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="K222" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>44</v>
+      </c>
+      <c r="D223">
+        <v>45</v>
+      </c>
+      <c r="E223" s="1">
+        <v>45752</v>
+      </c>
+      <c r="F223" s="2">
+        <v>125.1</v>
+      </c>
+      <c r="G223" s="2">
+        <v>179353</v>
+      </c>
+      <c r="H223" s="2">
+        <v>46</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0</v>
+      </c>
+      <c r="J223" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
